--- a/results/tables/statistical/mcnemar_test_pairwise.xlsx
+++ b/results/tables/statistical/mcnemar_test_pairwise.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,33 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <sz val="10"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -59,33 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -451,210 +413,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Model 1</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Model 2</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Chi-squared</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>p-value</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>RESNET18</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>RESNET34</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>4.3172</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>RESNET18</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>RESNET101</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>0.2628</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>0.6082</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>RESNET18</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>RESNET152</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>4.0851</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>RESNET34</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>RESNET101</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>6.8759</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>RESNET34</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>RESNET152</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>0.9784</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>RESNET101</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>RESNET152</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>6.2545</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
+    <row r="1" ht="25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/tables/statistical/mcnemar_test_pairwise.xlsx
+++ b/results/tables/statistical/mcnemar_test_pairwise.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,46 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF0F1"/>
+        <bgColor rgb="00ECF0F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,12 +72,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,15 +476,210 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1"/>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Model 1</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Model 2</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Chi-squared</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>RESNET18</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>RESNET34</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>4.317</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RESNET18</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>RESNET101</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>0.263</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>0.608</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>RESNET18</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>RESNET152</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>4.085</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RESNET34</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>RESNET101</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>6.876</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>RESNET34</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>RESNET152</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>0.978</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RESNET101</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>RESNET152</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>6.255</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/tables/statistical/mcnemar_test_pairwise.xlsx
+++ b/results/tables/statistical/mcnemar_test_pairwise.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,8 +484,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
@@ -521,162 +521,270 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>4.317</t>
+          <t>2.906</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.088</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>0.263</t>
+          <t>19.292</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>0.608</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>RESNET50</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>4.085</t>
+          <t>8.629</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>SWIN_TINY</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>6.876</t>
+          <t>6.537</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>8.915</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>RESNET50</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>6.255</t>
+          <t>1.628</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.202</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>DENSENET121</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>17.019</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>EFFICIENTNET_B3</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>RESNET50</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>3.287</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>0.070</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>EFFICIENTNET_B3</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>44.068</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RESNET50</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>29.075</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
